--- a/netpathz/test1.xlsx
+++ b/netpathz/test1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wdngu\Dropbox\CR\netpathz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E48C8CD6-7EF1-4B3A-9FD7-6D742AEE0A5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C5483C4-2FD3-493D-B2A3-A2D0FD62DC80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4875" yWindow="0" windowWidth="21600" windowHeight="11385" xr2:uid="{DF7CC35A-FB0D-4D99-BDB6-153AFAD30051}"/>
+    <workbookView xWindow="29865" yWindow="3540" windowWidth="21600" windowHeight="14895" xr2:uid="{DF7CC35A-FB0D-4D99-BDB6-153AFAD30051}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1441,10 +1441,10 @@
   <dimension ref="A1:BI408"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="16" topLeftCell="H45" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="16" topLeftCell="H50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
-      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomRight" activeCell="I61" sqref="I61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6182,7 +6182,7 @@
         <v>7.35</v>
       </c>
       <c r="I59" s="53">
-        <v>307</v>
+        <v>0.51500000000000001</v>
       </c>
       <c r="J59" s="55">
         <v>6.0151000000000003</v>
@@ -6261,7 +6261,7 @@
         <v>7.3</v>
       </c>
       <c r="I60" s="54">
-        <v>307</v>
+        <v>0.51500000000000001</v>
       </c>
       <c r="J60" s="58">
         <v>8.4745000000000008</v>
